--- a/dtpu_configurations/only_integer8/80mhz/mxu_3x3/utilization.xlsx
+++ b/dtpu_configurations/only_integer8/80mhz/mxu_3x3/utilization.xlsx
@@ -154,16 +154,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>16.125940322875977</v>
+        <v>16.5</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>5.350574970245361</v>
+        <v>5.344827651977539</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>10.73402214050293</v>
+        <v>11.11936092376709</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>22.85714340209961</v>
+        <v>34.28571701049805</v>
       </c>
       <c r="F2" t="n" s="4">
         <v>2.7272727489471436</v>
